--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43172,6 +43172,41 @@
         <v>145500</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>32000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43207,6 +43207,41 @@
         <v>32000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43242,6 +43242,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>143300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43277,6 +43277,41 @@
         <v>143300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>20500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43312,6 +43312,41 @@
         <v>20500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>25200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43347,6 +43347,41 @@
         <v>25200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43382,6 +43382,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43417,6 +43417,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43454,6 +43454,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>50200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43489,6 +43489,41 @@
         <v>50200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>360400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43524,6 +43524,41 @@
         <v>360400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43559,6 +43559,78 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>161700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43631,6 +43631,76 @@
         <v>161700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>204800</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43701,6 +43701,41 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>120200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43736,6 +43736,41 @@
         <v>120200</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1439900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43771,6 +43771,41 @@
         <v>1439900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>393200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,41 @@
         <v>393200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>187500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,6 +43841,76 @@
         <v>187500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>150200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43946,6 +43946,41 @@
         <v>150200</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1878"/>
+  <dimension ref="A1:I1879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66346,6 +66346,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1879" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1879" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1879" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1879" t="n">
+        <v>40200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1879"/>
+  <dimension ref="A1:I1880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66381,6 +66381,43 @@
         <v>40200</v>
       </c>
     </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1880" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1880" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1880" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1880" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1880"/>
+  <dimension ref="A1:I1881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66418,6 +66418,43 @@
         </is>
       </c>
     </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1881" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1881" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1881" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1881" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1881"/>
+  <dimension ref="A1:I1882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66455,6 +66455,43 @@
         </is>
       </c>
     </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1882" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1882" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1882" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1882" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1882"/>
+  <dimension ref="A1:I1883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66492,6 +66492,43 @@
         </is>
       </c>
     </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1883" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1883" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1883" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1883" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1883"/>
+  <dimension ref="A1:I1884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66529,6 +66529,43 @@
         </is>
       </c>
     </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1884" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1884" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1884" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1884" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1884"/>
+  <dimension ref="A1:I1885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66566,6 +66566,43 @@
         </is>
       </c>
     </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1885" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1885" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1885" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1885"/>
+  <dimension ref="A1:I1886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66603,6 +66603,41 @@
         </is>
       </c>
     </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1886" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1886" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1886" t="n">
+        <v>5100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1886"/>
+  <dimension ref="A1:I1887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66638,6 +66638,43 @@
         <v>5100</v>
       </c>
     </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1887" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1887" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1887"/>
+  <dimension ref="A1:I1888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66675,6 +66675,43 @@
         </is>
       </c>
     </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1888" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1888" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1888" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1888"/>
+  <dimension ref="A1:I1889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66712,6 +66712,43 @@
         </is>
       </c>
     </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1889" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1889" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1889" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1889"/>
+  <dimension ref="A1:I1890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66749,6 +66749,43 @@
         </is>
       </c>
     </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1890" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1890" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1890" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1890"/>
+  <dimension ref="A1:I1891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66786,6 +66786,41 @@
         </is>
       </c>
     </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1891" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1891" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1891"/>
+  <dimension ref="A1:I1892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66821,6 +66821,43 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1892" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1892" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1892"/>
+  <dimension ref="A1:I1893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66858,6 +66858,43 @@
         </is>
       </c>
     </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1893" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2481"/>
+  <dimension ref="A1:I2482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87475,6 +87475,43 @@
         </is>
       </c>
     </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2482" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2482"/>
+  <dimension ref="A1:I2483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87512,6 +87512,41 @@
         </is>
       </c>
     </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2483" t="n">
+        <v>69900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2483"/>
+  <dimension ref="A1:I2484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87547,6 +87547,41 @@
         <v>69900</v>
       </c>
     </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2484" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2484" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2484" t="n">
+        <v>31000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2484"/>
+  <dimension ref="A1:I2485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87582,6 +87582,41 @@
         <v>31000</v>
       </c>
     </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2485" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2485" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2485" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2485" t="n">
+        <v>98900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2485"/>
+  <dimension ref="A1:I2486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87617,6 +87617,41 @@
         <v>98900</v>
       </c>
     </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2486" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2486" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2486" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2486" t="n">
+        <v>51000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2486"/>
+  <dimension ref="A1:I2487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87652,6 +87652,41 @@
         <v>51000</v>
       </c>
     </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2487" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2487" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2487" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2487" t="n">
+        <v>48600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2487"/>
+  <dimension ref="A1:I2488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87687,6 +87687,43 @@
         <v>48600</v>
       </c>
     </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2488" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2488" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2488" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2488" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2488"/>
+  <dimension ref="A1:I2489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87724,6 +87724,41 @@
         </is>
       </c>
     </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2489" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2489" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2489" t="n">
+        <v>60400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2489"/>
+  <dimension ref="A1:I2490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87759,6 +87759,41 @@
         <v>60400</v>
       </c>
     </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2490" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2490" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2490" t="n">
+        <v>6800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2490"/>
+  <dimension ref="A1:I2491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87794,6 +87794,43 @@
         <v>6800</v>
       </c>
     </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2491" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2491"/>
+  <dimension ref="A1:I2493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87831,6 +87831,78 @@
         </is>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2492" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>54100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2493"/>
+  <dimension ref="A1:I2494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87903,6 +87903,43 @@
         <v>54100</v>
       </c>
     </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2494" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2494" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2494" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2494"/>
+  <dimension ref="A1:I2497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87940,6 +87940,113 @@
         </is>
       </c>
     </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2495" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2495" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2495" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2496" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2496" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2496" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2497" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2497" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2497" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2497" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2497"/>
+  <dimension ref="A1:I2498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88047,6 +88047,43 @@
         </is>
       </c>
     </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2498" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2498" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2498" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2498" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2498"/>
+  <dimension ref="A1:I2499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88084,6 +88084,41 @@
         </is>
       </c>
     </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2499" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2499" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2499" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2499" t="n">
+        <v>65100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0068.xlsx
+++ b/data/0068.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2499"/>
+  <dimension ref="A1:I2502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88119,6 +88119,111 @@
         <v>65100</v>
       </c>
     </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2500" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2500" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2500" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2500" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2501" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2501" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2501" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2501" t="n">
+        <v>398000</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>0068</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>ASDION</t>
+        </is>
+      </c>
+      <c r="E2502" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2502" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2502" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2502" t="n">
+        <v>4094700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
